--- a/target/test-classes/test/Scripts/projectOrangeHrm.xlsx
+++ b/target/test-classes/test/Scripts/projectOrangeHrm.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="16">
   <si>
     <t>Url</t>
   </si>
